--- a/data/trans_camb/IP19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 18,79</t>
+          <t>-10,72; 20,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 14,91</t>
+          <t>-18,29; 15,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 29,73</t>
+          <t>-3,49; 30,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 25,07</t>
+          <t>-5,77; 25,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 18,93</t>
+          <t>-22,86; 17,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 31,42</t>
+          <t>-8,4; 30,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 18,31</t>
+          <t>-4,41; 16,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 12,08</t>
+          <t>-14,77; 11,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 26,49</t>
+          <t>-0,9; 26,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 30,04</t>
+          <t>-13,98; 32,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 21,99</t>
+          <t>-23,79; 24,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 46,77</t>
+          <t>-4,25; 51,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 46,9</t>
+          <t>-8,06; 45,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 32,73</t>
+          <t>-31,67; 28,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 57,28</t>
+          <t>-10,78; 54,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 29,33</t>
+          <t>-6,09; 26,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 19,59</t>
+          <t>-20,23; 18,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 42,58</t>
+          <t>-0,21; 43,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 8,94</t>
+          <t>-4,42; 8,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 13,86</t>
+          <t>0,88; 13,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,49</t>
+          <t>2,83; 15,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 13,37</t>
+          <t>-1,07; 13,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 16,5</t>
+          <t>2,67; 16,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 27,34</t>
+          <t>14,7; 27,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,2</t>
+          <t>-0,98; 9,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,1</t>
+          <t>3,06; 13,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 19,56</t>
+          <t>10,68; 19,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 13,24</t>
+          <t>-5,95; 13,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 20,48</t>
+          <t>1,21; 20,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 23,27</t>
+          <t>3,93; 23,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 22,38</t>
+          <t>-1,67; 23,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 27,58</t>
+          <t>4,08; 27,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,1; 46,78</t>
+          <t>21,9; 47,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 14,32</t>
+          <t>-1,4; 14,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 20,41</t>
+          <t>4,56; 20,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 30,32</t>
+          <t>15,47; 31,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 20,72</t>
+          <t>0,55; 21,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 8,73</t>
+          <t>-14,24; 9,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 23,4</t>
+          <t>3,26; 23,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 13,1</t>
+          <t>-10,14; 13,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 14,0</t>
+          <t>-8,11; 13,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 11,67</t>
+          <t>-9,29; 12,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 14,75</t>
+          <t>-1,4; 14,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 7,93</t>
+          <t>-7,17; 7,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 15,18</t>
+          <t>1,04; 15,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 31,22</t>
+          <t>0,66; 32,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 13,22</t>
+          <t>-17,82; 14,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 35,49</t>
+          <t>4,76; 36,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 18,64</t>
+          <t>-12,25; 18,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 20,29</t>
+          <t>-10,02; 19,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 16,94</t>
+          <t>-11,27; 17,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 21,25</t>
+          <t>-1,74; 19,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 11,36</t>
+          <t>-9,37; 11,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 21,86</t>
+          <t>1,43; 22,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 9,77</t>
+          <t>-0,62; 10,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 9,76</t>
+          <t>-0,6; 9,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,94</t>
+          <t>5,93; 15,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 12,11</t>
+          <t>0,15; 11,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 13,04</t>
+          <t>1,41; 13,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 20,71</t>
+          <t>10,31; 21,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,11</t>
+          <t>1,58; 9,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,03</t>
+          <t>1,97; 10,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 17,23</t>
+          <t>9,51; 17,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,11</t>
+          <t>-0,86; 14,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 14,18</t>
+          <t>-0,85; 14,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,48</t>
+          <t>8,27; 23,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,25</t>
+          <t>-0,15; 18,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,73; 20,31</t>
+          <t>2,05; 20,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,88; 32,97</t>
+          <t>14,92; 33,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,94; 13,55</t>
+          <t>2,18; 14,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,01; 15,1</t>
+          <t>2,81; 15,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,34; 25,87</t>
+          <t>13,4; 25,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11,5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,63</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,06</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>14,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,43</t>
+          <t>12,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 20,37</t>
+          <t>-6,06; 24,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 15,84</t>
+          <t>-21,38; 17,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 30,99</t>
+          <t>-18,4; 30,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 25,47</t>
+          <t>-13,26; 20,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 17,08</t>
+          <t>-18,56; 16,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 30,78</t>
+          <t>-4,05; 30,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 16,81</t>
+          <t>-4,45; 17,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 11,91</t>
+          <t>-14,74; 12,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 26,77</t>
+          <t>-5,63; 24,93</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-1,5%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,04%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-2,09%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 32,78</t>
+          <t>-8,21; 45,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 24,99</t>
+          <t>-31,55; 29,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 51,31</t>
+          <t>-24,8; 53,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 45,72</t>
+          <t>-16,42; 33,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 28,97</t>
+          <t>-23,84; 25,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 54,99</t>
+          <t>-4,99; 50,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 26,87</t>
+          <t>-5,96; 28,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 18,88</t>
+          <t>-20,4; 19,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 43,69</t>
+          <t>-7,52; 40,87</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,56</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20,92</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,55</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,56</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,07</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>14,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 8,83</t>
+          <t>-1,09; 13,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 13,82</t>
+          <t>2,61; 16,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 15,62</t>
+          <t>14,2; 27,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 13,76</t>
+          <t>-4,4; 9,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 16,08</t>
+          <t>1,04; 13,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 27,63</t>
+          <t>2,79; 16,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 9,36</t>
+          <t>-0,82; 9,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 13,0</t>
+          <t>3,82; 12,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,81</t>
+          <t>10,13; 19,19</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,14%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,59%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>10,45%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13,31%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,96%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,14%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>21,87%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 13,12</t>
+          <t>-1,42; 22,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 20,62</t>
+          <t>4,08; 27,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 23,31</t>
+          <t>21,16; 46,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 23,1</t>
+          <t>-5,98; 13,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 27,15</t>
+          <t>1,37; 20,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 47,75</t>
+          <t>3,66; 23,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 14,48</t>
+          <t>-1,22; 14,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 20,42</t>
+          <t>5,51; 19,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 31,17</t>
+          <t>14,55; 29,65</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>10,88</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-2,41</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,84</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>8,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 21,54</t>
+          <t>-9,63; 13,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 9,62</t>
+          <t>-8,19; 13,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 23,96</t>
+          <t>-9,77; 12,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 13,04</t>
+          <t>-0,04; 21,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 13,63</t>
+          <t>-14,12; 9,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 12,15</t>
+          <t>5,02; 24,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 14,11</t>
+          <t>-1,12; 13,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 7,87</t>
+          <t>-8,12; 7,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 15,49</t>
+          <t>0,59; 15,19</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>14,81%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-3,28%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 32,42</t>
+          <t>-11,62; 19,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 14,8</t>
+          <t>-9,91; 18,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 36,95</t>
+          <t>-11,77; 18,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 18,83</t>
+          <t>-0,06; 31,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 19,72</t>
+          <t>-17,85; 13,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 17,31</t>
+          <t>6,33; 37,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 19,96</t>
+          <t>-1,35; 19,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 11,26</t>
+          <t>-10,16; 10,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 22,53</t>
+          <t>0,76; 21,63</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>15,5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,59</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>4,54</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,15</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>13,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 10,1</t>
+          <t>-0,07; 11,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 9,67</t>
+          <t>2,01; 13,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,83</t>
+          <t>9,99; 20,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 11,64</t>
+          <t>-1,05; 9,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 13,09</t>
+          <t>-1,1; 9,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,31; 21,36</t>
+          <t>5,87; 16,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,43</t>
+          <t>1,33; 9,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 10,16</t>
+          <t>2,2; 9,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,51; 17,31</t>
+          <t>9,37; 16,91</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>6,43%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>6,36%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>15,62%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>9,0%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>11,19%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 14,78</t>
+          <t>0,0; 17,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,16</t>
+          <t>2,95; 21,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,27; 23,31</t>
+          <t>14,47; 32,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 18,39</t>
+          <t>-1,45; 14,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,05; 20,84</t>
+          <t>-1,2; 14,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,92; 33,91</t>
+          <t>7,84; 23,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 14,2</t>
+          <t>1,91; 13,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 15,39</t>
+          <t>3,11; 14,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,4; 25,93</t>
+          <t>13,38; 25,29</t>
         </is>
       </c>
     </row>
